--- a/labelled_csv_files/labelled_M_0100_11y2m_1_fa.xlsx
+++ b/labelled_csv_files/labelled_M_0100_11y2m_1_fa.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shababayub/go/src/github.com/s4ayub/fydp/labelled_csv_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahul/Documents/fydp/labelled_csv_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B89A9F-51B4-2645-8257-1287D98C377F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8FF9D2E8-FC2D-F34B-9D5A-D231759ACC15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="20240" windowHeight="15000"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="12280" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labelled_M_0100_11y2m_1_fa" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -918,7 +926,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1396,8 +1404,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1752,11 +1761,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="B144" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2829,7 +2838,7 @@
         <v>54.02</v>
       </c>
       <c r="D54">
-        <v>54.23</v>
+        <v>47.23</v>
       </c>
       <c r="E54" t="s">
         <v>105</v>
@@ -2846,10 +2855,11 @@
         <v>106</v>
       </c>
       <c r="C55">
-        <v>54.23</v>
+        <f>D54</f>
+        <v>47.23</v>
       </c>
       <c r="D55">
-        <v>54.375</v>
+        <v>47.375</v>
       </c>
       <c r="E55" t="s">
         <v>50</v>
@@ -2866,10 +2876,11 @@
         <v>107</v>
       </c>
       <c r="C56">
-        <v>54.375</v>
+        <f t="shared" ref="C56:C61" si="0">D55</f>
+        <v>47.375</v>
       </c>
       <c r="D56">
-        <v>54.73</v>
+        <v>47.73</v>
       </c>
       <c r="E56" t="s">
         <v>52</v>
@@ -2886,10 +2897,11 @@
         <v>108</v>
       </c>
       <c r="C57">
-        <v>54.73</v>
+        <f t="shared" si="0"/>
+        <v>47.73</v>
       </c>
       <c r="D57">
-        <v>56.015000000000001</v>
+        <v>47.914999999999999</v>
       </c>
       <c r="E57" t="s">
         <v>109</v>
@@ -2906,10 +2918,11 @@
         <v>110</v>
       </c>
       <c r="C58">
-        <v>56.015000000000001</v>
+        <f t="shared" si="0"/>
+        <v>47.914999999999999</v>
       </c>
       <c r="D58">
-        <v>61.674999999999997</v>
+        <v>48.674999999999997</v>
       </c>
       <c r="E58" t="s">
         <v>111</v>
@@ -2926,10 +2939,11 @@
         <v>112</v>
       </c>
       <c r="C59">
-        <v>61.674999999999997</v>
+        <f t="shared" si="0"/>
+        <v>48.674999999999997</v>
       </c>
       <c r="D59">
-        <v>67.78</v>
+        <v>48.78</v>
       </c>
       <c r="E59" t="s">
         <v>113</v>
@@ -2946,10 +2960,10 @@
         <v>114</v>
       </c>
       <c r="C60">
-        <v>67.78</v>
+        <v>50.15</v>
       </c>
       <c r="D60">
-        <v>68.055000000000007</v>
+        <v>50.25</v>
       </c>
       <c r="E60" t="s">
         <v>115</v>
@@ -2966,10 +2980,10 @@
         <v>116</v>
       </c>
       <c r="C61">
-        <v>68.055000000000007</v>
+        <v>54.2</v>
       </c>
       <c r="D61">
-        <v>69.165000000000006</v>
+        <v>54.365000000000002</v>
       </c>
       <c r="E61" t="s">
         <v>117</v>
@@ -2986,10 +3000,10 @@
         <v>118</v>
       </c>
       <c r="C62">
-        <v>69.165000000000006</v>
+        <v>54.365000000000002</v>
       </c>
       <c r="D62">
-        <v>76.155000000000001</v>
+        <v>54.55</v>
       </c>
       <c r="E62" t="s">
         <v>119</v>
@@ -3006,10 +3020,10 @@
         <v>120</v>
       </c>
       <c r="C63">
-        <v>76.155000000000001</v>
+        <v>54.55</v>
       </c>
       <c r="D63">
-        <v>76.41</v>
+        <v>54.65</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
@@ -3026,10 +3040,11 @@
         <v>121</v>
       </c>
       <c r="C64">
-        <v>76.41</v>
+        <f>D63</f>
+        <v>54.65</v>
       </c>
       <c r="D64">
-        <v>80.61</v>
+        <v>54.85</v>
       </c>
       <c r="E64" t="s">
         <v>122</v>
@@ -3046,10 +3061,11 @@
         <v>123</v>
       </c>
       <c r="C65">
-        <v>80.61</v>
-      </c>
-      <c r="D65">
-        <v>81.064999999999998</v>
+        <f t="shared" ref="C65:C70" si="1">D64</f>
+        <v>54.85</v>
+      </c>
+      <c r="D65" s="1">
+        <v>55.125</v>
       </c>
       <c r="E65" t="s">
         <v>124</v>
@@ -3066,10 +3082,11 @@
         <v>125</v>
       </c>
       <c r="C66">
-        <v>81.064999999999998</v>
+        <f t="shared" si="1"/>
+        <v>55.125</v>
       </c>
       <c r="D66">
-        <v>81.11</v>
+        <v>55.25</v>
       </c>
       <c r="E66" t="s">
         <v>126</v>
@@ -3085,11 +3102,12 @@
       <c r="B67" t="s">
         <v>127</v>
       </c>
-      <c r="C67">
-        <v>81.11</v>
+      <c r="C67" s="1">
+        <f>D66</f>
+        <v>55.25</v>
       </c>
       <c r="D67">
-        <v>81.28</v>
+        <v>56.28</v>
       </c>
       <c r="E67" t="s">
         <v>81</v>
@@ -3106,10 +3124,11 @@
         <v>128</v>
       </c>
       <c r="C68">
-        <v>81.28</v>
+        <f t="shared" si="1"/>
+        <v>56.28</v>
       </c>
       <c r="D68">
-        <v>81.430000000000007</v>
+        <v>57.43</v>
       </c>
       <c r="E68" t="s">
         <v>129</v>
@@ -3126,10 +3145,11 @@
         <v>130</v>
       </c>
       <c r="C69">
-        <v>81.430000000000007</v>
+        <f t="shared" si="1"/>
+        <v>57.43</v>
       </c>
       <c r="D69">
-        <v>81.775000000000006</v>
+        <v>58.774999999999999</v>
       </c>
       <c r="E69" t="s">
         <v>131</v>
@@ -3146,10 +3166,11 @@
         <v>132</v>
       </c>
       <c r="C70">
-        <v>81.775000000000006</v>
+        <f t="shared" si="1"/>
+        <v>58.774999999999999</v>
       </c>
       <c r="D70">
-        <v>83.52</v>
+        <v>59.55</v>
       </c>
       <c r="E70" t="s">
         <v>133</v>
@@ -3166,10 +3187,10 @@
         <v>134</v>
       </c>
       <c r="C71">
-        <v>83.52</v>
+        <v>63.12</v>
       </c>
       <c r="D71">
-        <v>83.575000000000003</v>
+        <v>63.34</v>
       </c>
       <c r="E71" t="s">
         <v>115</v>
@@ -3186,10 +3207,10 @@
         <v>135</v>
       </c>
       <c r="C72">
-        <v>83.575000000000003</v>
-      </c>
-      <c r="D72">
-        <v>83.61</v>
+        <v>66.5</v>
+      </c>
+      <c r="D72" s="1">
+        <v>67.150000000000006</v>
       </c>
       <c r="E72" t="s">
         <v>136</v>
@@ -3206,10 +3227,10 @@
         <v>137</v>
       </c>
       <c r="C73">
-        <v>83.61</v>
-      </c>
-      <c r="D73">
-        <v>83.63</v>
+        <v>67.400000000000006</v>
+      </c>
+      <c r="D73" s="1">
+        <v>67.8</v>
       </c>
       <c r="E73" t="s">
         <v>138</v>
@@ -3226,10 +3247,11 @@
         <v>139</v>
       </c>
       <c r="C74">
-        <v>83.63</v>
+        <f t="shared" ref="C73:C88" si="2">D73</f>
+        <v>67.8</v>
       </c>
       <c r="D74">
-        <v>84.21</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="E74" t="s">
         <v>140</v>
@@ -3246,10 +3268,11 @@
         <v>141</v>
       </c>
       <c r="C75">
-        <v>84.21</v>
+        <f t="shared" si="2"/>
+        <v>68.150000000000006</v>
       </c>
       <c r="D75">
-        <v>86.004999999999995</v>
+        <v>68.55</v>
       </c>
       <c r="E75" t="s">
         <v>142</v>
@@ -3266,10 +3289,11 @@
         <v>143</v>
       </c>
       <c r="C76">
-        <v>86.004999999999995</v>
+        <f t="shared" si="2"/>
+        <v>68.55</v>
       </c>
       <c r="D76">
-        <v>86.105000000000004</v>
+        <v>68.849999999999994</v>
       </c>
       <c r="E76" t="s">
         <v>144</v>
@@ -3286,10 +3310,11 @@
         <v>145</v>
       </c>
       <c r="C77">
-        <v>86.105000000000004</v>
+        <f t="shared" si="2"/>
+        <v>68.849999999999994</v>
       </c>
       <c r="D77">
-        <v>86.13</v>
+        <v>69.2</v>
       </c>
       <c r="E77" t="s">
         <v>146</v>
@@ -3306,10 +3331,11 @@
         <v>147</v>
       </c>
       <c r="C78">
-        <v>86.13</v>
+        <f t="shared" si="2"/>
+        <v>69.2</v>
       </c>
       <c r="D78">
-        <v>86.325000000000003</v>
+        <v>69.25</v>
       </c>
       <c r="E78" t="s">
         <v>148</v>
@@ -3326,10 +3352,10 @@
         <v>149</v>
       </c>
       <c r="C79">
-        <v>86.325000000000003</v>
+        <v>84.25</v>
       </c>
       <c r="D79">
-        <v>86.594999999999999</v>
+        <v>84.55</v>
       </c>
       <c r="E79" t="s">
         <v>115</v>
@@ -3346,10 +3372,11 @@
         <v>150</v>
       </c>
       <c r="C80">
-        <v>86.594999999999999</v>
+        <f t="shared" si="2"/>
+        <v>84.55</v>
       </c>
       <c r="D80">
-        <v>86.734999999999999</v>
+        <v>84.734999999999999</v>
       </c>
       <c r="E80" t="s">
         <v>151</v>
@@ -3366,10 +3393,10 @@
         <v>152</v>
       </c>
       <c r="C81">
-        <v>86.734999999999999</v>
+        <v>85.135000000000005</v>
       </c>
       <c r="D81">
-        <v>87.15</v>
+        <v>85.284999999999997</v>
       </c>
       <c r="E81" t="s">
         <v>153</v>
@@ -3386,10 +3413,11 @@
         <v>154</v>
       </c>
       <c r="C82">
-        <v>87.15</v>
+        <f t="shared" si="2"/>
+        <v>85.284999999999997</v>
       </c>
       <c r="D82">
-        <v>89.02</v>
+        <v>85.314999999999998</v>
       </c>
       <c r="E82" t="s">
         <v>155</v>
@@ -3406,10 +3434,11 @@
         <v>156</v>
       </c>
       <c r="C83">
-        <v>89.02</v>
+        <f t="shared" si="2"/>
+        <v>85.314999999999998</v>
       </c>
       <c r="D83">
-        <v>89.35</v>
+        <v>85.45</v>
       </c>
       <c r="E83" t="s">
         <v>115</v>
@@ -3426,10 +3455,11 @@
         <v>157</v>
       </c>
       <c r="C84">
-        <v>89.35</v>
+        <f t="shared" si="2"/>
+        <v>85.45</v>
       </c>
       <c r="D84">
-        <v>94.965000000000003</v>
+        <v>85.765000000000001</v>
       </c>
       <c r="E84" t="s">
         <v>153</v>
@@ -3446,10 +3476,11 @@
         <v>158</v>
       </c>
       <c r="C85">
-        <v>94.965000000000003</v>
+        <f t="shared" si="2"/>
+        <v>85.765000000000001</v>
       </c>
       <c r="D85">
-        <v>95.23</v>
+        <v>86.23</v>
       </c>
       <c r="E85" t="s">
         <v>159</v>
@@ -3466,10 +3497,11 @@
         <v>160</v>
       </c>
       <c r="C86">
-        <v>95.23</v>
+        <f t="shared" si="2"/>
+        <v>86.23</v>
       </c>
       <c r="D86">
-        <v>95.375</v>
+        <v>86.375</v>
       </c>
       <c r="E86" t="s">
         <v>56</v>
@@ -3486,10 +3518,11 @@
         <v>161</v>
       </c>
       <c r="C87">
-        <v>95.375</v>
+        <f t="shared" si="2"/>
+        <v>86.375</v>
       </c>
       <c r="D87">
-        <v>95.614999999999995</v>
+        <v>86.515000000000001</v>
       </c>
       <c r="E87" t="s">
         <v>162</v>
@@ -3506,10 +3539,11 @@
         <v>163</v>
       </c>
       <c r="C88">
-        <v>95.614999999999995</v>
+        <f t="shared" si="2"/>
+        <v>86.515000000000001</v>
       </c>
       <c r="D88">
-        <v>95.765000000000001</v>
+        <v>86.765000000000001</v>
       </c>
       <c r="E88" t="s">
         <v>52</v>
@@ -3526,10 +3560,10 @@
         <v>164</v>
       </c>
       <c r="C89">
-        <v>95.765000000000001</v>
+        <v>86.765000000000001</v>
       </c>
       <c r="D89">
-        <v>96.1</v>
+        <v>87.1</v>
       </c>
       <c r="E89" t="s">
         <v>165</v>
@@ -3546,10 +3580,10 @@
         <v>166</v>
       </c>
       <c r="C90">
-        <v>96.1</v>
+        <v>95.125</v>
       </c>
       <c r="D90">
-        <v>96.355000000000004</v>
+        <v>95.224999999999994</v>
       </c>
       <c r="E90" t="s">
         <v>6</v>
@@ -3566,10 +3600,11 @@
         <v>167</v>
       </c>
       <c r="C91">
-        <v>96.355000000000004</v>
+        <f>D90</f>
+        <v>95.224999999999994</v>
       </c>
       <c r="D91">
-        <v>96.465000000000003</v>
+        <v>95.6</v>
       </c>
       <c r="E91" t="s">
         <v>168</v>
@@ -3586,10 +3621,11 @@
         <v>169</v>
       </c>
       <c r="C92">
-        <v>96.465000000000003</v>
+        <f t="shared" ref="C92:C96" si="3">D91</f>
+        <v>95.6</v>
       </c>
       <c r="D92">
-        <v>96.885000000000005</v>
+        <v>95.8</v>
       </c>
       <c r="E92" t="s">
         <v>170</v>
@@ -3606,10 +3642,11 @@
         <v>171</v>
       </c>
       <c r="C93">
-        <v>96.885000000000005</v>
+        <f t="shared" si="3"/>
+        <v>95.8</v>
       </c>
       <c r="D93">
-        <v>99.73</v>
+        <v>96.5</v>
       </c>
       <c r="E93" t="s">
         <v>172</v>
@@ -3626,10 +3663,11 @@
         <v>173</v>
       </c>
       <c r="C94">
-        <v>99.73</v>
+        <f t="shared" si="3"/>
+        <v>96.5</v>
       </c>
       <c r="D94">
-        <v>99.97</v>
+        <v>96.97</v>
       </c>
       <c r="E94" t="s">
         <v>174</v>
@@ -3646,10 +3684,11 @@
         <v>175</v>
       </c>
       <c r="C95">
-        <v>99.97</v>
+        <f t="shared" si="3"/>
+        <v>96.97</v>
       </c>
       <c r="D95">
-        <v>99.98</v>
+        <v>97.1</v>
       </c>
       <c r="E95" t="s">
         <v>176</v>
@@ -3666,7 +3705,8 @@
         <v>177</v>
       </c>
       <c r="C96">
-        <v>99.98</v>
+        <f t="shared" si="3"/>
+        <v>97.1</v>
       </c>
       <c r="D96">
         <v>100.15</v>
